--- a/Docs To Test/Docs To Test/UI Validation Test.xlsx
+++ b/Docs To Test/Docs To Test/UI Validation Test.xlsx
@@ -16,7 +16,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Create Admin</t>
+  </si>
+  <si>
+    <t>CreateLost</t>
+  </si>
+  <si>
+    <t>desription may be long,so we need TextArea rather than TextBox</t>
+  </si>
+  <si>
+    <t>minor</t>
+  </si>
+  <si>
+    <t>modification</t>
+  </si>
+  <si>
+    <t>Manage Admins</t>
+  </si>
+  <si>
+    <t>Manage Losts</t>
+  </si>
+  <si>
+    <t>SearchLosts</t>
+  </si>
+  <si>
+    <t>Design not compatible with mobile</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Create FoundEntry</t>
+  </si>
+  <si>
+    <t>The TextArea validation not set</t>
+  </si>
+  <si>
+    <t>Create New Lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error messages not compatible with it's fields </t>
+  </si>
+  <si>
+    <t>SearchLost</t>
+  </si>
+  <si>
+    <t>Update Admin</t>
+  </si>
   <si>
     <t>Module</t>
   </si>
@@ -40,6 +100,9 @@
   </si>
   <si>
     <t>Closure date</t>
+  </si>
+  <si>
+    <t>Textboxnedeedfor Status</t>
   </si>
 </sst>
 </file>
@@ -107,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -119,6 +182,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -415,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -435,31 +501,228 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>41694</v>
+      </c>
+      <c r="G4" s="5">
+        <v>41694</v>
+      </c>
+      <c r="H4" s="5">
+        <v>41694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1"/>
+      <c r="E5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="30">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4">
+        <v>41695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>41695</v>
+      </c>
+      <c r="G8" s="5">
+        <v>41695</v>
+      </c>
+      <c r="H8" s="5">
+        <v>41695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="30">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4">
+        <v>41695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>41694</v>
+      </c>
+      <c r="G11" s="5">
+        <v>41694</v>
+      </c>
+      <c r="H11" s="5">
+        <v>41694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4">
+        <v>41695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4">
+        <v>41696</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs To Test/Docs To Test/UI Validation Test.xlsx
+++ b/Docs To Test/Docs To Test/UI Validation Test.xlsx
@@ -16,16 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Create Admin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>CreateLost</t>
   </si>
@@ -39,70 +30,70 @@
     <t>modification</t>
   </si>
   <si>
-    <t>Manage Admins</t>
+    <t>SearchLosts</t>
+  </si>
+  <si>
+    <t>Design not compatible with mobile</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>Create FoundEntry</t>
+  </si>
+  <si>
+    <t>The TextArea validation not set</t>
+  </si>
+  <si>
+    <t>Create New Lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error messages not compatible with it's fields </t>
+  </si>
+  <si>
+    <t>SearchLost</t>
+  </si>
+  <si>
+    <t>Update Admin</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Issue Date</t>
+  </si>
+  <si>
+    <t>Reselution date</t>
+  </si>
+  <si>
+    <t>Closure date</t>
+  </si>
+  <si>
+    <t>Textboxnedeedfor Status</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>Notfixed</t>
   </si>
   <si>
     <t>Manage Losts</t>
-  </si>
-  <si>
-    <t>SearchLosts</t>
-  </si>
-  <si>
-    <t>Design not compatible with mobile</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>bug</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Create FoundEntry</t>
-  </si>
-  <si>
-    <t>The TextArea validation not set</t>
-  </si>
-  <si>
-    <t>Create New Lost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error messages not compatible with it's fields </t>
-  </si>
-  <si>
-    <t>SearchLost</t>
-  </si>
-  <si>
-    <t>Update Admin</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Issue Date</t>
-  </si>
-  <si>
-    <t>Reselution date</t>
-  </si>
-  <si>
-    <t>Closure date</t>
-  </si>
-  <si>
-    <t>Textboxnedeedfor Status</t>
   </si>
 </sst>
 </file>
@@ -481,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,107 +492,163 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="30">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="4">
+        <v>41694</v>
+      </c>
+      <c r="G2" s="5">
+        <v>41694</v>
+      </c>
+      <c r="H2" s="5">
+        <v>41694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
+      <c r="F3" s="4">
+        <v>41695</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4">
-        <v>41694</v>
+        <v>41695</v>
       </c>
       <c r="G4" s="5">
-        <v>41694</v>
+        <v>41695</v>
       </c>
       <c r="H4" s="5">
-        <v>41694</v>
+        <v>41695</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="F5" s="4">
+        <v>41695</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="30">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4">
+        <v>41694</v>
+      </c>
+      <c r="G6" s="5">
+        <v>41694</v>
+      </c>
+      <c r="H6" s="5">
+        <v>41694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F7" s="4">
         <v>41695</v>
@@ -609,117 +656,35 @@
     </row>
     <row r="8" spans="1:8" ht="30">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4">
-        <v>41695</v>
-      </c>
-      <c r="G8" s="5">
-        <v>41695</v>
-      </c>
-      <c r="H8" s="5">
-        <v>41695</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>41696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="30">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4">
-        <v>41695</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>41694</v>
-      </c>
-      <c r="G11" s="5">
-        <v>41694</v>
-      </c>
-      <c r="H11" s="5">
-        <v>41694</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4">
-        <v>41695</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4">
         <v>41696</v>
       </c>
     </row>

--- a/Docs To Test/Docs To Test/UI Validation Test.xlsx
+++ b/Docs To Test/Docs To Test/UI Validation Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>CreateLost</t>
   </si>
@@ -57,9 +57,6 @@
     <t>SearchLost</t>
   </si>
   <si>
-    <t>Update Admin</t>
-  </si>
-  <si>
     <t>Module</t>
   </si>
   <si>
@@ -84,13 +81,7 @@
     <t>Closure date</t>
   </si>
   <si>
-    <t>Textboxnedeedfor Status</t>
-  </si>
-  <si>
     <t>fixed</t>
-  </si>
-  <si>
-    <t>Notfixed</t>
   </si>
   <si>
     <t>Manage Losts</t>
@@ -161,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -176,6 +167,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -472,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -492,28 +486,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30">
@@ -530,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="4">
         <v>41694</v>
@@ -556,10 +550,16 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F3" s="4">
         <v>41695</v>
+      </c>
+      <c r="G3" s="6">
+        <v>41732</v>
+      </c>
+      <c r="H3" s="6">
+        <v>41732</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
@@ -576,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4">
         <v>41695</v>
@@ -602,10 +602,16 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4">
         <v>41695</v>
+      </c>
+      <c r="G5" s="6">
+        <v>41702</v>
+      </c>
+      <c r="H5" s="6">
+        <v>41702</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30">
@@ -622,7 +628,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4">
         <v>41694</v>
@@ -648,48 +654,47 @@
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4">
         <v>41695</v>
+      </c>
+      <c r="G7" s="6">
+        <v>41702</v>
+      </c>
+      <c r="H7" s="5">
+        <v>41702</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4">
         <v>41696</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="30">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="4">
-        <v>41696</v>
+      <c r="G8" s="6">
+        <v>41702</v>
+      </c>
+      <c r="H8" s="6">
+        <v>41702</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="641" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
